--- a/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T04:56:18+00:00</t>
+    <t>2022-08-20T02:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,7 @@
 【JP-Core仕様】検体検査結果レポートのプロフィール</t>
   </si>
   <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
 【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
@@ -496,8 +495,7 @@
 ・オーダ側でオーダ番号が1つにまとまるか別になるかは有り得る</t>
   </si>
   <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.
-発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
+    <t>発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -523,11 +521,10 @@
 </t>
   </si>
   <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.
-依頼されたサービス（検査や診断など）に関する詳細情報</t>
+    <t>元になった検査や診断の依頼</t>
+  </si>
+  <si>
+    <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
   </si>
   <si>
     <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.
@@ -600,11 +597,10 @@
 </t>
   </si>
   <si>
-    <t>Service category　サービスカテゴリー</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.
-レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
+    <t>サービスカテゴリー</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
@@ -645,11 +641,10 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.
-この診断レポートを説明するコードまたは名前。</t>
+    <t>この診断レポートの名前/コード</t>
+  </si>
+  <si>
+    <t>この診断レポートを説明するコードまたは名前。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -699,8 +694,7 @@
     <t>The subject of the report - usually, but not always, the patient　レポートの対象、常にではないが、通常は患者</t>
   </si>
   <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.
-レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
+    <t>レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -734,11 +728,10 @@
 </t>
   </si>
   <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.
-このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）</t>
+  </si>
+  <si>
+    <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).
@@ -772,11 +765,10 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+    <t>臨床的に関連する時刻または時間</t>
+  </si>
+  <si>
+    <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
   </si>
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.
@@ -810,11 +802,10 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.
-このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証された後となる。</t>
+    <t>このバージョンが作成された日時</t>
+  </si>
+  <si>
+    <t>このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証・確定された後となる。</t>
   </si>
   <si>
     <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.
@@ -845,11 +836,10 @@
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
-  </si>
-  <si>
-    <t>The diagnostic service that is responsible for issuing the report.
-レポートの作成発行に責任をもつ診断サービス。</t>
+    <t>レポート内容に責任をもつ診断的サービス</t>
+  </si>
+  <si>
+    <t>レポートの作成発行に責任をもつ診断サービス。</t>
   </si>
   <si>
     <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.
@@ -879,11 +869,10 @@
 Reported by</t>
   </si>
   <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
-  </si>
-  <si>
-    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.
-レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
+    <t>結果の一次解釈者</t>
+  </si>
+  <si>
+    <t>レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
   </si>
   <si>
     <t>Might not be the same entity that takes responsibility for the clinical report.
@@ -901,11 +890,10 @@
 </t>
   </si>
   <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
-  </si>
-  <si>
-    <t>Details about the specimens on which this diagnostic report is based.
-この診断レポートのもとになった検体に関する詳細情報。</t>
+    <t>レポートのもとになった検体</t>
+  </si>
+  <si>
+    <t>この診断レポートのもとになった検体に関する詳細情報。</t>
   </si>
   <si>
     <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.
@@ -930,7 +918,7 @@
 </t>
   </si>
   <si>
-    <t>Observations　検査結果</t>
+    <t>検査結果。Observationsリソースが参照される。</t>
   </si>
   <si>
     <t>[Observations](observation.html)  that are part of this diagnostic report.
@@ -942,8 +930,7 @@
 【JP-Core仕様】該当するObservationを設定</t>
   </si>
   <si>
-    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.
-個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
+    <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
   </si>
   <si>
     <t>OBXs</t>
@@ -959,11 +946,10 @@
 </t>
   </si>
   <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
-  </si>
-  <si>
-    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.
-診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+  </si>
+  <si>
+    <t>診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
   </si>
   <si>
     <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.
@@ -985,11 +971,10 @@
 </t>
   </si>
   <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
-  </si>
-  <si>
-    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).
-このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
+    <t>このレポートに関連づけられたキー画像</t>
+  </si>
+  <si>
+    <t>このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
   </si>
   <si>
     <t>【JP-Core仕様】レポート1つに対して、複数の画像・コメントがぶら下がる</t>
@@ -1088,7 +1073,7 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
@@ -1111,11 +1096,10 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
-  </si>
-  <si>
-    <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.
-診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
+    <t>検査結果の臨床的結論（解釈）用のコード</t>
+  </si>
+  <si>
+    <t>診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -1139,11 +1123,10 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
-  </si>
-  <si>
-    <t>Rich text representation of the entire result as issued by the diagnostic service. Multiple formats are allowed but they SHALL be semantically equivalent.
-診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
+    <t>発行されたレポート全体</t>
+  </si>
+  <si>
+    <t>診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
   </si>
   <si>
     <t>"application/pdf" is recommended as the most reliable and interoperable in this context.
